--- a/游戏设计/功能设计.xlsx
+++ b/游戏设计/功能设计.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitgame\xiuzhen\游戏设计\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD3631E-88BB-49BA-99EC-B84BDE7D775B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="玩法框架" sheetId="1" r:id="rId1"/>
+    <sheet name="地图设计" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>基本资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,13 +56,185 @@
   </si>
   <si>
     <t>修真界使用的货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贼兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山贼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地块类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同层级可以同时存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同层级之间为互斥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山寨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贼兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采石场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.生成2层titlemap地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.实现城镇生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.实现资源点生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.实现地块建筑变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.设置边界山脉，自动生成山脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.实现地图事件生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.实现河流水域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑和事件需要在指定地块生成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -201,7 +368,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -378,28 +545,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -410,7 +577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -418,12 +585,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -433,4 +600,237 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="29.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/游戏设计/功能设计.xlsx
+++ b/游戏设计/功能设计.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>基本资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,23 +211,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.实现地块建筑变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.设置边界山脉，自动生成山脉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.实现地图事件生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.实现河流水域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建筑和事件需要在指定地块生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.实现地块建筑变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.设置边界山脉，自动生成山脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.实现地图事件生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.实现河流水域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.实现地图数据保存和地块选中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,12 +255,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -271,8 +281,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -606,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -636,7 +648,7 @@
       <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -650,7 +662,7 @@
       <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -662,9 +674,9 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -675,8 +687,8 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>46</v>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -704,6 +716,11 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">

--- a/游戏设计/功能设计.xlsx
+++ b/游戏设计/功能设计.xlsx
@@ -281,10 +281,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -557,7 +556,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -619,7 +618,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -687,7 +686,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>51</v>
       </c>
     </row>
